--- a/public/ExcelFile/I-Menu_ES.xlsx
+++ b/public/ExcelFile/I-Menu_ES.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Emoji</t>
   </si>
@@ -60,318 +60,6 @@
   </si>
   <si>
     <t>2023-09-26</t>
-  </si>
-  <si>
-    <t>🍕</t>
-  </si>
-  <si>
-    <t>Otro</t>
-  </si>
-  <si>
-    <t>Pizza</t>
-  </si>
-  <si>
-    <t>Pizza Margherita</t>
-  </si>
-  <si>
-    <t>Ensalada César con pollo a la parrilla.</t>
-  </si>
-  <si>
-    <t>2023-09-27</t>
-  </si>
-  <si>
-    <t>🌯</t>
-  </si>
-  <si>
-    <t>libre</t>
-  </si>
-  <si>
-    <t>Mexicana</t>
-  </si>
-  <si>
-    <t>Tacos de Pollo</t>
-  </si>
-  <si>
-    <t>Pizza Margarita con tomates frescos y albahaca.</t>
-  </si>
-  <si>
-    <t>2023-09-28</t>
-  </si>
-  <si>
-    <t>🥗</t>
-  </si>
-  <si>
-    <t>Menú sin gluten</t>
-  </si>
-  <si>
-    <t>Ensaladas</t>
-  </si>
-  <si>
-    <t>Ensalada César</t>
-  </si>
-  <si>
-    <t>Sushi variado con sashimi y makis.</t>
-  </si>
-  <si>
-    <t>2023-09-29</t>
-  </si>
-  <si>
-    <t>🍝</t>
-  </si>
-  <si>
-    <t>Menú sin soja</t>
-  </si>
-  <si>
-    <t>Pastas</t>
-  </si>
-  <si>
-    <t>Spaghetti Carbonara</t>
-  </si>
-  <si>
-    <t>Tacos de carnitas con cebolla y cilantro.</t>
-  </si>
-  <si>
-    <t>2023-09-30</t>
-  </si>
-  <si>
-    <t>🍗</t>
-  </si>
-  <si>
-    <t>Menú bajo en grasas</t>
-  </si>
-  <si>
-    <t>Asiatica</t>
-  </si>
-  <si>
-    <t>Sushi Variado</t>
-  </si>
-  <si>
-    <t>Pasta al pesto con piñones y queso parmesano.</t>
-  </si>
-  <si>
-    <t>2023-10-01</t>
-  </si>
-  <si>
-    <t>🍟</t>
-  </si>
-  <si>
-    <t>Burrito de Pollo</t>
-  </si>
-  <si>
-    <t>Sopa de tomate casera con croutons.</t>
-  </si>
-  <si>
-    <t>2023-10-02</t>
-  </si>
-  <si>
-    <t>🍳</t>
-  </si>
-  <si>
-    <t>Menú vegetariano</t>
-  </si>
-  <si>
-    <t>Curry de Cordero</t>
-  </si>
-  <si>
-    <t>Ternera a la parrilla con chimichurri.</t>
-  </si>
-  <si>
-    <t>2023-10-03</t>
-  </si>
-  <si>
-    <t>🥖</t>
-  </si>
-  <si>
-    <t>Menú sin mariscos</t>
-  </si>
-  <si>
-    <t>Sushi Vegano</t>
-  </si>
-  <si>
-    <t>Rollitos de primavera con salsa agridulce.</t>
-  </si>
-  <si>
-    <t>2023-10-04</t>
-  </si>
-  <si>
-    <t>🧀</t>
-  </si>
-  <si>
-    <t>Menú sin frutos secos</t>
-  </si>
-  <si>
-    <t>Sandwiches</t>
-  </si>
-  <si>
-    <t>Sándwich de Pavo</t>
-  </si>
-  <si>
-    <t>Burrito de pollo con guacamole y crema agria.</t>
-  </si>
-  <si>
-    <t>2023-10-05</t>
-  </si>
-  <si>
-    <t>🍤</t>
-  </si>
-  <si>
-    <t>Menú kosher</t>
-  </si>
-  <si>
-    <t>Carnes</t>
-  </si>
-  <si>
-    <t>Churrasco Brasileño</t>
-  </si>
-  <si>
-    <t>Pescado a la plancha con verduras asadas.</t>
-  </si>
-  <si>
-    <t>2023-10-06</t>
-  </si>
-  <si>
-    <t>🍱</t>
-  </si>
-  <si>
-    <t>Menú orgánico</t>
-  </si>
-  <si>
-    <t>Mediterranea</t>
-  </si>
-  <si>
-    <t>Paella Vegetariana</t>
-  </si>
-  <si>
-    <t>Pollo al curry con arroz basmati.</t>
-  </si>
-  <si>
-    <t>2023-10-07</t>
-  </si>
-  <si>
-    <t>🍯</t>
-  </si>
-  <si>
-    <t>Menú sin transgénicos</t>
-  </si>
-  <si>
-    <t>Sopas</t>
-  </si>
-  <si>
-    <t>Sopa de Lentejas</t>
-  </si>
-  <si>
-    <t>Tarta de manzana con helado de vainilla.</t>
-  </si>
-  <si>
-    <t>2023-10-08</t>
-  </si>
-  <si>
-    <t>🧁</t>
-  </si>
-  <si>
-    <t>Menú sin carne roja</t>
-  </si>
-  <si>
-    <t>Arroz Frito con Pollo</t>
-  </si>
-  <si>
-    <t>Tiramisú italiano con café y cacao.</t>
-  </si>
-  <si>
-    <t>2023-10-09</t>
-  </si>
-  <si>
-    <t>🍇</t>
-  </si>
-  <si>
-    <t>celíaco</t>
-  </si>
-  <si>
-    <t>Hamburguesa Vegana</t>
-  </si>
-  <si>
-    <t>Pimientos rellenos de carne y arroz.</t>
-  </si>
-  <si>
-    <t>2023-10-10</t>
-  </si>
-  <si>
-    <t>🌭</t>
-  </si>
-  <si>
-    <t>diabético</t>
-  </si>
-  <si>
-    <t>Papas Fritas</t>
-  </si>
-  <si>
-    <t>Sándwich de pavo con aguacate y espinacas.</t>
-  </si>
-  <si>
-    <t>2023-10-11</t>
-  </si>
-  <si>
-    <t>🥪</t>
-  </si>
-  <si>
-    <t>Pollo a la Parrilla</t>
-  </si>
-  <si>
-    <t>Tofu salteado con vegetales frescos.</t>
-  </si>
-  <si>
-    <t>2023-10-12</t>
-  </si>
-  <si>
-    <t>🍙</t>
-  </si>
-  <si>
-    <t>Menú sin lactosa</t>
-  </si>
-  <si>
-    <t>Mariscos</t>
-  </si>
-  <si>
-    <t>Camarones al Ajillo</t>
-  </si>
-  <si>
-    <t>Langosta a la parrilla con mantequilla de ajo.</t>
-  </si>
-  <si>
-    <t>2023-10-13</t>
-  </si>
-  <si>
-    <t>🍅</t>
-  </si>
-  <si>
-    <t>Menú paleo*</t>
-  </si>
-  <si>
-    <t>Postres</t>
-  </si>
-  <si>
-    <t>Donas de Chocolate</t>
-  </si>
-  <si>
-    <t>Crepe de chocolate con fresas y nata.</t>
-  </si>
-  <si>
-    <t>2023-10-14</t>
-  </si>
-  <si>
-    <t>🍣</t>
-  </si>
-  <si>
-    <t>Menú cetogénico (keto)</t>
-  </si>
-  <si>
-    <t>Helado de Vainilla</t>
-  </si>
-  <si>
-    <t>Batido de frutas frescas con yogur.</t>
-  </si>
-  <si>
-    <t>2023-10-15</t>
   </si>
   <si>
     <t>Nombre de comercio</t>
@@ -471,16 +159,17 @@
       <name val="Söhne"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Söhne"/>
-    </font>
-    <font>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
     </font>
     <font>
       <color rgb="FF333333"/>
       <name val="Catamaran"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -519,10 +208,16 @@
     <border/>
     <border>
       <left style="thin">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FFD9D9E3"/>
+        <color rgb="FF000000"/>
       </bottom>
     </border>
   </borders>
@@ -533,40 +228,34 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="5" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -811,914 +500,325 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="8">
         <v>50.0</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="4">
         <v>0.0</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="4">
         <v>0.0</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="4">
         <v>0.0</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="10">
-        <v>2192.0</v>
-      </c>
-      <c r="G3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I3" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="10"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I4" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>27</v>
-      </c>
+      <c r="A4" s="10"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J5" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A5" s="10"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>39</v>
-      </c>
+      <c r="A6" s="10"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>45</v>
-      </c>
+      <c r="A7" s="10"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>49</v>
-      </c>
+      <c r="A8" s="10"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="F9" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>54</v>
-      </c>
+      <c r="A9" s="10"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>59</v>
-      </c>
+      <c r="A10" s="10"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>65</v>
-      </c>
+      <c r="A11" s="10"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="F12" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="A12" s="10"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F13" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>77</v>
-      </c>
+      <c r="A13" s="10"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A14" s="10"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>88</v>
-      </c>
+      <c r="A15" s="10"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J16" s="11" t="s">
-        <v>93</v>
-      </c>
+      <c r="A16" s="10"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>98</v>
-      </c>
+      <c r="A17" s="10"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F18" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>102</v>
-      </c>
+      <c r="A18" s="10"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>108</v>
-      </c>
+      <c r="A19" s="10"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="F20" s="10">
-        <v>3288.0</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>114</v>
-      </c>
+      <c r="A20" s="10"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="F21" s="10">
-        <v>4554.0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="11" t="s">
-        <v>119</v>
-      </c>
+      <c r="A21" s="10"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="6"/>
+      <c r="A22" s="10"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="6"/>
+      <c r="A23" s="10"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="6"/>
+      <c r="A24" s="10"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="6"/>
+      <c r="A25" s="10"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="6"/>
+      <c r="A26" s="10"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="6"/>
+      <c r="A27" s="10"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="6"/>
+      <c r="A28" s="10"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="6"/>
+      <c r="A29" s="10"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="6"/>
+      <c r="A30" s="10"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="6"/>
+      <c r="A31" s="10"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="6"/>
+      <c r="A32" s="10"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="6"/>
+      <c r="A33" s="10"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="6"/>
+      <c r="A34" s="10"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6"/>
+      <c r="A35" s="10"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6"/>
+      <c r="A36" s="10"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="6"/>
+      <c r="A37" s="10"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="6"/>
+      <c r="A38" s="10"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="6"/>
+      <c r="A39" s="10"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="6"/>
+      <c r="A40" s="10"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="6"/>
+      <c r="A41" s="10"/>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="6"/>
+      <c r="A42" s="10"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="A43" s="6"/>
+      <c r="A43" s="10"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="A44" s="6"/>
+      <c r="A44" s="10"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="6"/>
+      <c r="A45" s="10"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="6"/>
+      <c r="A46" s="10"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="A47" s="6"/>
+      <c r="A47" s="10"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="6"/>
+      <c r="A48" s="10"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="6"/>
+      <c r="A49" s="10"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="A50" s="6"/>
+      <c r="A50" s="10"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="6"/>
+      <c r="A51" s="10"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="A52" s="6"/>
+      <c r="A52" s="10"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="A53" s="6"/>
+      <c r="A53" s="10"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="A54" s="6"/>
+      <c r="A54" s="10"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="6"/>
+      <c r="A55" s="10"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="6"/>
+      <c r="A56" s="10"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="6"/>
+      <c r="A57" s="10"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="6"/>
+      <c r="A58" s="10"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="6"/>
+      <c r="A59" s="10"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="6"/>
+      <c r="A60" s="10"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="6"/>
+      <c r="A61" s="10"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="A62" s="6"/>
+      <c r="A62" s="10"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="A63" s="6"/>
+      <c r="A63" s="10"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="A64" s="6"/>
+      <c r="A64" s="10"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="6"/>
+      <c r="A65" s="10"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="A66" s="6"/>
+      <c r="A66" s="10"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="A67" s="6"/>
+      <c r="A67" s="10"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="A68" s="6"/>
+      <c r="A68" s="10"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="A69" s="6"/>
+      <c r="A69" s="10"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="A70" s="6"/>
+      <c r="A70" s="10"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="A71" s="6"/>
+      <c r="A71" s="10"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="6"/>
+      <c r="A72" s="10"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="A73" s="6"/>
+      <c r="A73" s="10"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="A74" s="6"/>
+      <c r="A74" s="10"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="A75" s="6"/>
+      <c r="A75" s="10"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="6"/>
+      <c r="A76" s="10"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="A77" s="6"/>
+      <c r="A77" s="10"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="A78" s="6"/>
+      <c r="A78" s="10"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="A79" s="6"/>
+      <c r="A79" s="10"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="A80" s="6"/>
+      <c r="A80" s="10"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="A81" s="6"/>
+      <c r="A81" s="10"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="A82" s="6"/>
+      <c r="A82" s="10"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="A83" s="6"/>
+      <c r="A83" s="10"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="6"/>
+      <c r="A84" s="10"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="A85" s="6"/>
-    </row>
-    <row r="86" ht="15.75" customHeight="1">
-      <c r="A86" s="6"/>
-    </row>
-    <row r="87" ht="15.75" customHeight="1">
-      <c r="A87" s="6"/>
-    </row>
-    <row r="88" ht="15.75" customHeight="1">
-      <c r="A88" s="6"/>
-    </row>
-    <row r="89" ht="15.75" customHeight="1">
-      <c r="A89" s="6"/>
-    </row>
-    <row r="90" ht="15.75" customHeight="1">
-      <c r="A90" s="6"/>
-    </row>
-    <row r="91" ht="15.75" customHeight="1">
-      <c r="A91" s="6"/>
-    </row>
-    <row r="92" ht="15.75" customHeight="1">
-      <c r="A92" s="6"/>
-    </row>
-    <row r="93" ht="15.75" customHeight="1">
-      <c r="A93" s="6"/>
-    </row>
-    <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="6"/>
-    </row>
-    <row r="95" ht="15.75" customHeight="1">
-      <c r="A95" s="6"/>
-    </row>
-    <row r="96" ht="15.75" customHeight="1">
-      <c r="A96" s="6"/>
-    </row>
-    <row r="97" ht="15.75" customHeight="1">
-      <c r="A97" s="6"/>
-    </row>
-    <row r="98" ht="15.75" customHeight="1">
-      <c r="A98" s="6"/>
-    </row>
-    <row r="99" ht="15.75" customHeight="1">
-      <c r="A99" s="6"/>
-    </row>
-    <row r="100" ht="15.75" customHeight="1">
-      <c r="A100" s="6"/>
-    </row>
-    <row r="101" ht="15.75" customHeight="1">
-      <c r="A101" s="6"/>
-    </row>
-    <row r="102" ht="15.75" customHeight="1">
-      <c r="A102" s="6"/>
-    </row>
-    <row r="103" ht="15.75" customHeight="1">
-      <c r="A103" s="6"/>
-    </row>
-    <row r="104" ht="15.75" customHeight="1">
-      <c r="A104" s="6"/>
-    </row>
+      <c r="A85" s="10"/>
+    </row>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
     <row r="107" ht="15.75" customHeight="1"/>
@@ -2617,10 +1717,10 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2:B21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B2">
       <formula1>"libre,Menú vegetariano,Menú vegano,Otro,Menú sin gluten,Menú sin lactosa,Menú sin frutos secos,Menú sin mariscos,Menú sin soja,Menú sin huevo,Menú sin carne roja,Menú sin azúcar añadido,Menú bajo en grasas,Menú sin sal,Menú paleo*,Menú cetogénico (keto),M"&amp;"enú sin alérgenos,Menú halal,Menú kosher,Menú sin transgénicos,Menú orgánico,Menú de comida rápida saludable,celíaco,diabético"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2:A21">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="A2">
       <formula1>"🍔,🌭,🌮,🌯,🍕,🍖,🍗,🍞,🍟,🍲,🍳,🍿,🥐,🥓,🥖,🥗,🥘,🥙,🥚,🥞,🥣,🥨,🥩,🥪,🥫,🥯,🧀,🧂,🧆,🧇,🧈,🍘,🍙,🍚,🍛,🍜,🍝,🍠,🍡,🍢,🍣,🍤,🍥,🍱,🥟,🥠,🥡,🥮,🍅,🍇,🍈,🍉,🍊,🍋,🍌,🍍,🍎,🍏,🍐,🍑,🍒,🍓,🥝,🥥,🥭,🦀,🦐,🦑,🦞,🦪,🍦,🍧,🍨,🍩,🍪,🍫,🍬,🍭,🍮,🍯,🍰,🎂,🥧,🧁,🍷,"&amp;"🍸,🍹,🍺,🍻,🍾,🥂,🥃,🥛,🥤,🧃,🧉,🧊,☕,🍴,🍽,🔪,🥄,🥢"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2650,76 +1750,77 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>131</v>
+      <c r="A1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="13"/>
+      <c r="I1" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="F2" s="7">
+      <c r="A2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="5">
         <v>1.45689789E8</v>
       </c>
-      <c r="G2" s="16" t="s">
-        <v>137</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="K2" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N2" s="7">
+      <c r="G2" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="16"/>
+      <c r="N2" s="5">
         <v>10.0</v>
       </c>
     </row>
